--- a/Rscripts/Family graph OwnerHabFix.xlsx
+++ b/Rscripts/Family graph OwnerHabFix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="10515" windowHeight="8250" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="48" windowWidth="10512" windowHeight="8256"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -585,11 +585,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="102575488"/>
-        <c:axId val="90039424"/>
+        <c:axId val="344928256"/>
+        <c:axId val="344929792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102575488"/>
+        <c:axId val="344928256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -598,7 +598,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90039424"/>
+        <c:crossAx val="344929792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -606,7 +606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90039424"/>
+        <c:axId val="344929792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -616,7 +616,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102575488"/>
+        <c:crossAx val="344928256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -958,11 +958,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="90319872"/>
-        <c:axId val="90329856"/>
+        <c:axId val="344962944"/>
+        <c:axId val="344964480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90319872"/>
+        <c:axId val="344962944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -976,12 +976,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0"/>
+              <a:defRPr sz="1600" b="0" baseline="0">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90329856"/>
+        <c:crossAx val="344964480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -989,7 +991,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90329856"/>
+        <c:axId val="344964480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1004,12 +1006,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0"/>
+              <a:defRPr sz="1700" b="0" baseline="0"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90319872"/>
+        <c:crossAx val="344962944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1020,10 +1022,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.81703565796140987"/>
+          <c:x val="0.69296439113689012"/>
           <c:y val="0.18377709673499754"/>
-          <c:w val="0.11628526369127937"/>
-          <c:h val="0.20682659723914762"/>
+          <c:w val="0.24035656006102463"/>
+          <c:h val="0.27204389822089992"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1032,7 +1034,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0"/>
+            <a:defRPr sz="1800" b="0" baseline="0"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -1054,16 +1056,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1139190</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>27622</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>103822</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1084,16 +1086,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>493394</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>297179</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>160019</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1404,11 +1406,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="3" bestFit="1" customWidth="1"/>
@@ -1858,7 +1860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1875,7 +1877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1889,7 +1891,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1906,7 +1908,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1937,13 +1939,13 @@
       <selection activeCell="B24" sqref="A1:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -1960,7 +1962,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>73</v>
       </c>
@@ -1979,7 +1981,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
@@ -1998,7 +2000,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
@@ -2017,7 +2019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>72</v>
       </c>
@@ -2055,7 +2057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
@@ -2074,7 +2076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
@@ -2093,7 +2095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -2110,7 +2112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
@@ -2129,7 +2131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>67</v>
       </c>
@@ -2148,7 +2150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>75</v>
       </c>
@@ -2167,7 +2169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>77</v>
       </c>
@@ -2186,7 +2188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>48</v>
       </c>
@@ -2203,7 +2205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>53</v>
       </c>
@@ -2222,7 +2224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>58</v>
       </c>
@@ -2241,7 +2243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>60</v>
       </c>
@@ -2258,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>62</v>
       </c>
@@ -2277,7 +2279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>63</v>
       </c>
@@ -2296,7 +2298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>78</v>
       </c>
@@ -2315,7 +2317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>79</v>
       </c>
@@ -2334,7 +2336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>81</v>
       </c>
@@ -2351,7 +2353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>82</v>
       </c>
@@ -2368,7 +2370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
@@ -2387,7 +2389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
@@ -2404,7 +2406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
@@ -2421,7 +2423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
@@ -2438,7 +2440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
@@ -2455,7 +2457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>41</v>
       </c>
@@ -2472,7 +2474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>42</v>
       </c>
@@ -2489,7 +2491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>45</v>
       </c>
@@ -2506,7 +2508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>46</v>
       </c>
@@ -2523,7 +2525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>49</v>
       </c>
@@ -2540,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>50</v>
       </c>
@@ -2557,7 +2559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>51</v>
       </c>
@@ -2574,7 +2576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>52</v>
       </c>
@@ -2591,7 +2593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>54</v>
       </c>
@@ -2608,7 +2610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>55</v>
       </c>
@@ -2625,7 +2627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>59</v>
       </c>
@@ -2642,7 +2644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>61</v>
       </c>
@@ -2659,7 +2661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>64</v>
       </c>
@@ -2676,7 +2678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>65</v>
       </c>
@@ -2693,7 +2695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
@@ -2710,7 +2712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>68</v>
       </c>
@@ -2727,7 +2729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>69</v>
       </c>
@@ -2744,7 +2746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>70</v>
       </c>
@@ -2761,7 +2763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>71</v>
       </c>
@@ -2778,7 +2780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>74</v>
       </c>
@@ -2795,7 +2797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>76</v>
       </c>
@@ -2812,7 +2814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>80</v>
       </c>
@@ -2829,7 +2831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>83</v>
       </c>
@@ -2846,7 +2848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>84</v>
       </c>
@@ -2863,7 +2865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>85</v>
       </c>
@@ -2880,7 +2882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>87</v>
       </c>
@@ -2911,18 +2913,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
